--- a/branches/update-code-systems/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T09:53:38+00:00</t>
+    <t>2023-03-14T11:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-code-systems/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
+++ b/branches/update-code-systems/ValueSet-vs-reason-sample-cancelled-or-rejected.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-14T11:49:46+00:00</t>
+    <t>2023-03-24T12:30:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,19 +105,19 @@
     <t>281264009</t>
   </si>
   <si>
-    <t>Inappropriate bottle or container for sample (finding)</t>
+    <t>Inappropriate bottle or container for sample</t>
   </si>
   <si>
     <t>281266006</t>
   </si>
   <si>
-    <t>No sample received (finding)</t>
+    <t>No sample received</t>
   </si>
   <si>
     <t>135839007</t>
   </si>
   <si>
-    <t>Sample rejected (finding)</t>
+    <t>Sample rejected</t>
   </si>
   <si>
     <t/>
